--- a/documents/design/VER-ERD-spreadsheet-MLGS-v1.xlsx
+++ b/documents/design/VER-ERD-spreadsheet-MLGS-v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\educom-verrukkulluk\documents\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51621E26-167E-4747-921C-A53FA076D411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6927D170-7F89-411F-B42A-968CA5F08FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="4" xr2:uid="{DD5E9F4C-A528-4C88-BA8A-180B1EFBF8EA}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="4" activeTab="5" xr2:uid="{DD5E9F4C-A528-4C88-BA8A-180B1EFBF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="GERECHT" sheetId="1" r:id="rId1"/>
@@ -664,7 +664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298CA21D-C45E-447D-B570-9355F58EF232}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -707,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDACFDE4-1FCC-430E-AEC5-F33879FE890F}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
